--- a/isolants.xlsx
+++ b/isolants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@\@CESI\Stage CESI\Code\Rsimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D929953-F552-4D58-8D90-899C63D5B4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5481F3-BE98-4415-B3AF-F7956620CD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,23 +750,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="15d8ddab-24e7-4977-888d-906390486999" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001DC912B4A5A59C479B2BBC606786C189" ma:contentTypeVersion="17" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="edece333483433262c7d951f9eb38d97">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="15d8ddab-24e7-4977-888d-906390486999" xmlns:ns4="8f3334e0-772c-4b91-a0a5-db773c5e210a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74589bce4edc301c17bb415275c756da" ns3:_="" ns4:_="">
     <xsd:import namespace="15d8ddab-24e7-4977-888d-906390486999"/>
@@ -1013,32 +996,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9035FCF3-51A2-453F-ABDC-26EE19668B74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="15d8ddab-24e7-4977-888d-906390486999"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="8f3334e0-772c-4b91-a0a5-db773c5e210a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27186F30-B619-48AE-8608-D83238E3960A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="15d8ddab-24e7-4977-888d-906390486999" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED63C51F-67DE-4C0B-814F-32585570DF67}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1055,4 +1030,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27186F30-B619-48AE-8608-D83238E3960A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9035FCF3-51A2-453F-ABDC-26EE19668B74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="15d8ddab-24e7-4977-888d-906390486999"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8f3334e0-772c-4b91-a0a5-db773c5e210a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/isolants.xlsx
+++ b/isolants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@\@CESI\Stage CESI\Code\Rsimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5481F3-BE98-4415-B3AF-F7956620CD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8351DCAE-4D44-4FBB-B722-636E9B85204C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,6 +750,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="15d8ddab-24e7-4977-888d-906390486999" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001DC912B4A5A59C479B2BBC606786C189" ma:contentTypeVersion="17" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="edece333483433262c7d951f9eb38d97">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="15d8ddab-24e7-4977-888d-906390486999" xmlns:ns4="8f3334e0-772c-4b91-a0a5-db773c5e210a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74589bce4edc301c17bb415275c756da" ns3:_="" ns4:_="">
     <xsd:import namespace="15d8ddab-24e7-4977-888d-906390486999"/>
@@ -996,24 +1013,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27186F30-B619-48AE-8608-D83238E3960A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="15d8ddab-24e7-4977-888d-906390486999" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9035FCF3-51A2-453F-ABDC-26EE19668B74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="15d8ddab-24e7-4977-888d-906390486999"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8f3334e0-772c-4b91-a0a5-db773c5e210a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED63C51F-67DE-4C0B-814F-32585570DF67}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1030,29 +1055,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27186F30-B619-48AE-8608-D83238E3960A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9035FCF3-51A2-453F-ABDC-26EE19668B74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="15d8ddab-24e7-4977-888d-906390486999"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="8f3334e0-772c-4b91-a0a5-db773c5e210a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/isolants.xlsx
+++ b/isolants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@\@CESI\Stage CESI\Code\Rsimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8351DCAE-4D44-4FBB-B722-636E9B85204C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00691192-8DAD-4489-A4EF-D6D4B6E837E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,23 +750,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="15d8ddab-24e7-4977-888d-906390486999" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001DC912B4A5A59C479B2BBC606786C189" ma:contentTypeVersion="17" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="edece333483433262c7d951f9eb38d97">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="15d8ddab-24e7-4977-888d-906390486999" xmlns:ns4="8f3334e0-772c-4b91-a0a5-db773c5e210a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74589bce4edc301c17bb415275c756da" ns3:_="" ns4:_="">
     <xsd:import namespace="15d8ddab-24e7-4977-888d-906390486999"/>
@@ -1013,10 +996,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="15d8ddab-24e7-4977-888d-906390486999" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27186F30-B619-48AE-8608-D83238E3960A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED63C51F-67DE-4C0B-814F-32585570DF67}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="15d8ddab-24e7-4977-888d-906390486999"/>
+    <ds:schemaRef ds:uri="8f3334e0-772c-4b91-a0a5-db773c5e210a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1039,20 +1050,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED63C51F-67DE-4C0B-814F-32585570DF67}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27186F30-B619-48AE-8608-D83238E3960A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="15d8ddab-24e7-4977-888d-906390486999"/>
-    <ds:schemaRef ds:uri="8f3334e0-772c-4b91-a0a5-db773c5e210a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/isolants.xlsx
+++ b/isolants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@\@CESI\Stage CESI\Code\Rsimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AC18B8-99BD-4CDE-B12E-B25FBD2578FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F83DD2-9966-4FC9-ABF3-9C54DB1AECA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
   <si>
-    <t>Nom Matériau</t>
-  </si>
-  <si>
     <t>Bois lourd</t>
   </si>
   <si>
@@ -1142,6 +1139,9 @@
   </si>
   <si>
     <t>Chaleurmassique</t>
+  </si>
+  <si>
+    <t>Nom_Matériau</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1512,7 @@
   <dimension ref="A1:J369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1527,22 +1527,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>22.5</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>17.5</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>37.5</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>47.77</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>14.18</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>21.08</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>41.06</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>48.14</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>15.55</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>42.82</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>23.42</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>12.04</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>17.760000000000002</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>44.99</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>48.57</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>26.44</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>18.309999999999999</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>36.479999999999997</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>37.6</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>49.16</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>10.050000000000001</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>34.68</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>45.74</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>13.65</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>48.95</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>13.1</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>34.01</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>35.619999999999997</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>17.39</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>35.92</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>32.909999999999997</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>45.06</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>21.65</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>49.05</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>21.86</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>33.380000000000003</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>37.81</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>18.95</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>29.13</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>20.399999999999999</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>42.7</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>18.38</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>43.52</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>30.74</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>15.11</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>47.18</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>36.78</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>14.65</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>45.11</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>45.37</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>49.84</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>41.99</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>12.15</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>35.47</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>17.690000000000001</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>33.840000000000003</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>33.39</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>42.33</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>14.44</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>25.29</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>22.12</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>31.89</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>13.61</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>33.51</v>
@@ -2851,7 +2851,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>31.94</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>17.260000000000002</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>10.62</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>38.659999999999997</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>26.18</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>24.06</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>12.77</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>17.32</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>46.1</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>42.41</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>21.09</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>21.3</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>39.14</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>12.08</v>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>39.43</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>37.11</v>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>29.56</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>13.38</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>20.72</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>18.809999999999999</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>47.27</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>20.07</v>
@@ -3291,7 +3291,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>45.43</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>37.549999999999997</v>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>25.23</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>39.380000000000003</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>29.69</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>17.13</v>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>37.29</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>32.79</v>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>12.49</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>17.41</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>29.83</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>29.27</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>25.21</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>16.600000000000001</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>17.14</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>21.77</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>21.08</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>39.42</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>34.42</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>38.700000000000003</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>14.6</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>48.82</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>40.659999999999997</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>11.58</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>43.33</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>36.979999999999997</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>10.29</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>24.85</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>31.97</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>35.5</v>
@@ -3891,7 +3891,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>28.74</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>12.27</v>
@@ -3931,7 +3931,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>13.59</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>24.37</v>
@@ -3971,7 +3971,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>49.65</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>47.57</v>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>30.11</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>47.62</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>27.05</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>21.14</v>
@@ -4091,7 +4091,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>21.54</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>34.29</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>23.32</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>12.34</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>14.73</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>17.21</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>21.76</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>42.21</v>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>18.14</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>13.24</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <v>12.08</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <v>17.52</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>31.82</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>43.46</v>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>37.47</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>37.380000000000003</v>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>47.8</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146">
         <v>26.31</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <v>29.31</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>26.44</v>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <v>43.26</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150">
         <v>40.159999999999997</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151">
         <v>43.07</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152">
         <v>30.54</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153">
         <v>12.85</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154">
         <v>34.74</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155">
         <v>27.17</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156">
         <v>48.78</v>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157">
         <v>34.729999999999997</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158">
         <v>23.15</v>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159">
         <v>27.38</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160">
         <v>36.53</v>
@@ -4731,7 +4731,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161">
         <v>19.28</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162">
         <v>20.93</v>
@@ -4771,7 +4771,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163">
         <v>23.4</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164">
         <v>10.33</v>
@@ -4811,7 +4811,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165">
         <v>47.26</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166">
         <v>42.77</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167">
         <v>29.36</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168">
         <v>26.09</v>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169">
         <v>33.71</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170">
         <v>13.81</v>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171">
         <v>45.07</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172">
         <v>38.93</v>
@@ -4971,7 +4971,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173">
         <v>26.44</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174">
         <v>49.28</v>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175">
         <v>39.409999999999997</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176">
         <v>34.61</v>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177">
         <v>42.39</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178">
         <v>20.25</v>
@@ -5091,7 +5091,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179">
         <v>27.25</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180">
         <v>21.28</v>
@@ -5131,7 +5131,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181">
         <v>39.479999999999997</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182">
         <v>49.19</v>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183">
         <v>40.65</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184">
         <v>29.09</v>
@@ -5211,7 +5211,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185">
         <v>42.63</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186">
         <v>16.27</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187">
         <v>20.71</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188">
         <v>14.93</v>
@@ -5291,7 +5291,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189">
         <v>29.1</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190">
         <v>33.909999999999997</v>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191">
         <v>48.8</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192">
         <v>26.98</v>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193">
         <v>34.1</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194">
         <v>12.43</v>
@@ -5411,7 +5411,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195">
         <v>16.62</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196">
         <v>23.99</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197">
         <v>22.24</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198">
         <v>48.14</v>
@@ -5491,7 +5491,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199">
         <v>29.77</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200">
         <v>36.28</v>
@@ -5531,7 +5531,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201">
         <v>47.73</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202">
         <v>38.03</v>
@@ -5571,7 +5571,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203">
         <v>24.9</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204">
         <v>49.8</v>
@@ -5611,7 +5611,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205">
         <v>27.93</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206">
         <v>25.75</v>
@@ -5651,7 +5651,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207">
         <v>39.42</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208">
         <v>45.12</v>
@@ -5691,7 +5691,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209">
         <v>13.78</v>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210">
         <v>42.27</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211">
         <v>19.5</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212">
         <v>29.82</v>
@@ -5771,7 +5771,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213">
         <v>25.26</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214">
         <v>14.44</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215">
         <v>14.05</v>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216">
         <v>19.579999999999998</v>
@@ -5851,7 +5851,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217">
         <v>11.91</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218">
         <v>40.159999999999997</v>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219">
         <v>37.909999999999997</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220">
         <v>46.03</v>
@@ -5931,7 +5931,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221">
         <v>42.14</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222">
         <v>21.8</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223">
         <v>22.85</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224">
         <v>16.399999999999999</v>
@@ -6011,7 +6011,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225">
         <v>37.03</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226">
         <v>34.840000000000003</v>
@@ -6051,7 +6051,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227">
         <v>41.86</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228">
         <v>16.73</v>
@@ -6091,7 +6091,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229">
         <v>22.26</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230">
         <v>37.08</v>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231">
         <v>39.25</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232">
         <v>32.86</v>
@@ -6171,7 +6171,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233">
         <v>32.799999999999997</v>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234">
         <v>12.99</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235">
         <v>25.96</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236">
         <v>36.46</v>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237">
         <v>28.7</v>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238">
         <v>25.18</v>
@@ -6291,7 +6291,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239">
         <v>48.74</v>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240">
         <v>17.36</v>
@@ -6331,7 +6331,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241">
         <v>48.76</v>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242">
         <v>27.64</v>
@@ -6371,7 +6371,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243">
         <v>34.909999999999997</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244">
         <v>31.78</v>
@@ -6411,7 +6411,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245">
         <v>15.44</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246">
         <v>23.48</v>
@@ -6451,7 +6451,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247">
         <v>19.829999999999998</v>
@@ -6471,7 +6471,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248">
         <v>40.68</v>
@@ -6491,7 +6491,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249">
         <v>34.32</v>
@@ -6511,7 +6511,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250">
         <v>28.3</v>
@@ -6531,7 +6531,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251">
         <v>49.47</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252">
         <v>34.18</v>
@@ -6571,7 +6571,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253">
         <v>19.899999999999999</v>
@@ -6591,7 +6591,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254">
         <v>14.96</v>
@@ -6611,7 +6611,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255">
         <v>39.94</v>
@@ -6631,7 +6631,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256">
         <v>22.04</v>
@@ -6651,7 +6651,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257">
         <v>49.59</v>
@@ -6671,7 +6671,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258">
         <v>30.41</v>
@@ -6691,7 +6691,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259">
         <v>19.89</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260">
         <v>19.54</v>
@@ -6731,7 +6731,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261">
         <v>30.95</v>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262">
         <v>46.2</v>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263">
         <v>17.57</v>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264">
         <v>12.43</v>
@@ -6811,7 +6811,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265">
         <v>24.93</v>
@@ -6831,7 +6831,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266">
         <v>21.08</v>
@@ -6851,7 +6851,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267">
         <v>42.76</v>
@@ -6871,7 +6871,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268">
         <v>13.43</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269">
         <v>23.8</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270">
         <v>29.51</v>
@@ -6931,7 +6931,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271">
         <v>22.63</v>
@@ -6951,7 +6951,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272">
         <v>34.07</v>
@@ -6971,7 +6971,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273">
         <v>22.63</v>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274">
         <v>27.91</v>
@@ -7011,7 +7011,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275">
         <v>35.54</v>
@@ -7031,7 +7031,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276">
         <v>48.8</v>
@@ -7051,7 +7051,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277">
         <v>31.62</v>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278">
         <v>38.950000000000003</v>
@@ -7091,7 +7091,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279">
         <v>38.229999999999997</v>
@@ -7111,7 +7111,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280">
         <v>27.8</v>
@@ -7131,7 +7131,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281">
         <v>10.1</v>
@@ -7151,7 +7151,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282">
         <v>18.649999999999999</v>
@@ -7171,7 +7171,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283">
         <v>36.82</v>
@@ -7191,7 +7191,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284">
         <v>12.32</v>
@@ -7211,7 +7211,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285">
         <v>35.43</v>
@@ -7231,7 +7231,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286">
         <v>44.56</v>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287">
         <v>32.880000000000003</v>
@@ -7271,7 +7271,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288">
         <v>27.25</v>
@@ -7291,7 +7291,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289">
         <v>29.91</v>
@@ -7311,7 +7311,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290">
         <v>45.39</v>
@@ -7331,7 +7331,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291">
         <v>37.61</v>
@@ -7351,7 +7351,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292">
         <v>19.61</v>
@@ -7371,7 +7371,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293">
         <v>19.86</v>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294">
         <v>46.18</v>
@@ -7411,7 +7411,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295">
         <v>43.57</v>
@@ -7431,7 +7431,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296">
         <v>41.74</v>
@@ -7451,7 +7451,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297">
         <v>45.32</v>
@@ -7471,7 +7471,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298">
         <v>17.97</v>
@@ -7491,7 +7491,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299">
         <v>40.07</v>
@@ -7511,7 +7511,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300">
         <v>14.76</v>
@@ -7531,7 +7531,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301">
         <v>35.03</v>
@@ -7551,7 +7551,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302">
         <v>10.45</v>
@@ -7571,7 +7571,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303">
         <v>20.71</v>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304">
         <v>24.71</v>
@@ -7611,7 +7611,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305">
         <v>26.27</v>
@@ -7631,7 +7631,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306">
         <v>17.329999999999998</v>
@@ -7651,7 +7651,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307">
         <v>28.68</v>
@@ -7671,7 +7671,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308">
         <v>28.73</v>
@@ -7691,7 +7691,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309">
         <v>21</v>
@@ -7711,7 +7711,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310">
         <v>38.06</v>
@@ -7731,7 +7731,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311">
         <v>27.96</v>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312">
         <v>17.11</v>
@@ -7771,7 +7771,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313">
         <v>12.18</v>
@@ -7791,7 +7791,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314">
         <v>16.260000000000002</v>
@@ -7811,7 +7811,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315">
         <v>24.52</v>
@@ -7831,7 +7831,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316">
         <v>25.79</v>
@@ -7851,7 +7851,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B317">
         <v>30.63</v>
@@ -7871,7 +7871,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318">
         <v>42.07</v>
@@ -7891,7 +7891,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319">
         <v>21.67</v>
@@ -7911,7 +7911,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320">
         <v>33.39</v>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321">
         <v>13.75</v>
@@ -7951,7 +7951,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322">
         <v>23.74</v>
@@ -7971,7 +7971,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323">
         <v>40.11</v>
@@ -7991,7 +7991,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324">
         <v>17.2</v>
@@ -8011,7 +8011,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325">
         <v>14.1</v>
@@ -8031,7 +8031,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326">
         <v>13.58</v>
@@ -8051,7 +8051,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327">
         <v>25.57</v>
@@ -8071,7 +8071,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328">
         <v>38.159999999999997</v>
@@ -8091,7 +8091,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329">
         <v>41.23</v>
@@ -8111,7 +8111,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330">
         <v>39.64</v>
@@ -8131,7 +8131,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331">
         <v>11.78</v>
@@ -8151,7 +8151,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332">
         <v>16.39</v>
@@ -8171,7 +8171,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333">
         <v>33.72</v>
@@ -8191,7 +8191,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334">
         <v>47.15</v>
@@ -8211,7 +8211,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335">
         <v>23.1</v>
@@ -8231,7 +8231,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336">
         <v>19.52</v>
@@ -8251,7 +8251,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337">
         <v>27.56</v>
@@ -8271,7 +8271,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338">
         <v>32.99</v>
@@ -8291,7 +8291,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B339">
         <v>43.74</v>
@@ -8311,7 +8311,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340">
         <v>16.32</v>
@@ -8331,7 +8331,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B341">
         <v>19.559999999999999</v>
@@ -8351,7 +8351,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342">
         <v>49.16</v>
@@ -8371,7 +8371,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343">
         <v>29.2</v>
@@ -8391,7 +8391,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344">
         <v>45.32</v>
@@ -8411,7 +8411,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345">
         <v>24.35</v>
@@ -8431,7 +8431,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346">
         <v>23.78</v>
@@ -8451,7 +8451,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347">
         <v>28.23</v>
@@ -8471,7 +8471,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348">
         <v>34.08</v>
@@ -8491,7 +8491,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349">
         <v>18.510000000000002</v>
@@ -8511,7 +8511,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350">
         <v>25.4</v>
@@ -8531,7 +8531,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351">
         <v>32.74</v>
@@ -8551,7 +8551,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352">
         <v>25.74</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353">
         <v>28.15</v>
@@ -8591,7 +8591,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354">
         <v>44.04</v>
@@ -8611,7 +8611,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355">
         <v>45.8</v>
@@ -8631,7 +8631,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356">
         <v>27.83</v>
@@ -8651,7 +8651,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B357">
         <v>24.23</v>
@@ -8671,7 +8671,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B358">
         <v>30.1</v>
@@ -8691,7 +8691,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B359">
         <v>46.62</v>
@@ -8711,7 +8711,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360">
         <v>17.239999999999998</v>
@@ -8731,7 +8731,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361">
         <v>27.7</v>
@@ -8751,7 +8751,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362">
         <v>40.840000000000003</v>
@@ -8771,7 +8771,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363">
         <v>17.12</v>
@@ -8791,7 +8791,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364">
         <v>38.79</v>
@@ -8811,7 +8811,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365">
         <v>32.450000000000003</v>
@@ -8831,7 +8831,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B366">
         <v>38.72</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B367">
         <v>22.18</v>
@@ -8871,7 +8871,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368">
         <v>19.32</v>
@@ -8891,7 +8891,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B369">
         <v>12.14</v>
@@ -8915,23 +8915,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="15d8ddab-24e7-4977-888d-906390486999" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001DC912B4A5A59C479B2BBC606786C189" ma:contentTypeVersion="17" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="edece333483433262c7d951f9eb38d97">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="15d8ddab-24e7-4977-888d-906390486999" xmlns:ns4="8f3334e0-772c-4b91-a0a5-db773c5e210a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74589bce4edc301c17bb415275c756da" ns3:_="" ns4:_="">
     <xsd:import namespace="15d8ddab-24e7-4977-888d-906390486999"/>
@@ -9178,32 +9161,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3311976-F2E9-4FF7-88AF-6AF65DC73F61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="15d8ddab-24e7-4977-888d-906390486999"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8f3334e0-772c-4b91-a0a5-db773c5e210a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7F7C145-C5AE-4F75-A439-6C83CD95DB36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="15d8ddab-24e7-4977-888d-906390486999" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34CF9E23-26F0-4486-8EF7-5F538C6CA483}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9220,4 +9195,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7F7C145-C5AE-4F75-A439-6C83CD95DB36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3311976-F2E9-4FF7-88AF-6AF65DC73F61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="15d8ddab-24e7-4977-888d-906390486999"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8f3334e0-772c-4b91-a0a5-db773c5e210a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/isolants.xlsx
+++ b/isolants.xlsx
@@ -467,7 +467,7 @@
         <v>1200</v>
       </c>
       <c r="G2" t="n">
-        <v>4.0434869565882</v>
+        <v>1.33702305652362</v>
       </c>
     </row>
     <row r="3">
@@ -490,7 +490,7 @@
         <v>2720</v>
       </c>
       <c r="G3" t="n">
-        <v>6.47584102856286</v>
+        <v>1.91196771400012</v>
       </c>
     </row>
     <row r="4">
@@ -513,7 +513,7 @@
         <v>2093</v>
       </c>
       <c r="G4" t="n">
-        <v>5.67564226236436</v>
+        <v>1.15052854799987</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>2100</v>
       </c>
       <c r="G5" t="n">
-        <v>4.35969254410156</v>
+        <v>1.12019756654426</v>
       </c>
     </row>
     <row r="6">
@@ -559,7 +559,7 @@
         <v>1400</v>
       </c>
       <c r="G6" t="n">
-        <v>2.85019505180641</v>
+        <v>0.820568062250411</v>
       </c>
     </row>
     <row r="7">
@@ -582,7 +582,7 @@
         <v>840</v>
       </c>
       <c r="G7" t="n">
-        <v>2.24307493670155</v>
+        <v>1.02413243524396</v>
       </c>
     </row>
     <row r="8">
@@ -605,7 +605,7 @@
         <v>1400</v>
       </c>
       <c r="G8" t="n">
-        <v>3.0498322051322</v>
+        <v>0.958187772486561</v>
       </c>
     </row>
     <row r="9">
@@ -628,7 +628,7 @@
         <v>1400</v>
       </c>
       <c r="G9" t="n">
-        <v>3.23896323659496</v>
+        <v>1.06473283001089</v>
       </c>
     </row>
     <row r="10">
@@ -651,7 +651,7 @@
         <v>2000</v>
       </c>
       <c r="G10" t="n">
-        <v>4.72188238073716</v>
+        <v>1.74743269566762</v>
       </c>
     </row>
     <row r="11">
@@ -674,7 +674,7 @@
         <v>1390</v>
       </c>
       <c r="G11" t="n">
-        <v>3.17768416108924</v>
+        <v>0.981413150672129</v>
       </c>
     </row>
     <row r="12">
@@ -697,7 +697,7 @@
         <v>1623</v>
       </c>
       <c r="G12" t="n">
-        <v>5.82130582239911</v>
+        <v>1.18348436713785</v>
       </c>
     </row>
     <row r="13">
@@ -720,7 +720,7 @@
         <v>800</v>
       </c>
       <c r="G13" t="n">
-        <v>4.89128743282333</v>
+        <v>1.35493971022782</v>
       </c>
     </row>
     <row r="14">
@@ -743,7 +743,7 @@
         <v>900</v>
       </c>
       <c r="G14" t="n">
-        <v>6.54042607432784</v>
+        <v>1.23665595754168</v>
       </c>
     </row>
     <row r="15">
@@ -766,7 +766,7 @@
         <v>700</v>
       </c>
       <c r="G15" t="n">
-        <v>7.02052098348145</v>
+        <v>0.760719157234563</v>
       </c>
     </row>
     <row r="16">
@@ -789,7 +789,7 @@
         <v>1008</v>
       </c>
       <c r="G16" t="n">
-        <v>7.22600885561074</v>
+        <v>1.57722208562814</v>
       </c>
     </row>
     <row r="17">
@@ -812,7 +812,7 @@
         <v>900</v>
       </c>
       <c r="G17" t="n">
-        <v>7.15110645004096</v>
+        <v>1.6646580425818</v>
       </c>
     </row>
     <row r="18">
@@ -835,7 +835,7 @@
         <v>900</v>
       </c>
       <c r="G18" t="n">
-        <v>5.29225789137931</v>
+        <v>0.799024646328009</v>
       </c>
     </row>
     <row r="19">
@@ -858,7 +858,7 @@
         <v>1400</v>
       </c>
       <c r="G19" t="n">
-        <v>5.59529822221223</v>
+        <v>1.28891657817107</v>
       </c>
     </row>
     <row r="20">
@@ -881,7 +881,7 @@
         <v>1300</v>
       </c>
       <c r="G20" t="n">
-        <v>3.38213747428051</v>
+        <v>1.14976068216343</v>
       </c>
     </row>
     <row r="21">
@@ -904,7 +904,7 @@
         <v>1300</v>
       </c>
       <c r="G21" t="n">
-        <v>3.13829449632541</v>
+        <v>0.909548116207561</v>
       </c>
     </row>
   </sheetData>

--- a/isolants.xlsx
+++ b/isolants.xlsx
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Panneau de cellulose FLEX CL040</t>
   </si>
   <si>
-    <t xml:space="preserve">Fibre de bois</t>
+    <t xml:space="preserve">Terre cuite</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
         <v>2720</v>
       </c>
       <c r="G2" t="n">
-        <v>4.29353085747788</v>
+        <v>1.91196771400012</v>
       </c>
     </row>
     <row r="3">
@@ -439,7 +439,7 @@
         <v>2000</v>
       </c>
       <c r="G3" t="n">
-        <v>3.44010940274787</v>
+        <v>1.74743269566762</v>
       </c>
     </row>
     <row r="4">
@@ -447,22 +447,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>37.5</v>
+        <v>10.62</v>
       </c>
       <c r="C4" t="n">
-        <v>400</v>
+        <v>304.39</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15</v>
+        <v>1.15</v>
       </c>
       <c r="E4" t="n">
-        <v>800</v>
+        <v>1900</v>
       </c>
       <c r="F4" t="n">
-        <v>2093</v>
+        <v>900</v>
       </c>
       <c r="G4" t="n">
-        <v>3.14799512862381</v>
+        <v>1.6646580425818</v>
       </c>
     </row>
   </sheetData>

--- a/isolants.xlsx
+++ b/isolants.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Nom_Matériau</t>
   </si>
@@ -33,15 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bois très léger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panneau de cellulose FLEX CL040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terre cuite</t>
   </si>
 </sst>
 </file>
@@ -396,75 +387,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>250</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E2" t="n">
-        <v>350</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2720</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.91196771400012</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="C3" t="n">
-        <v>276.93</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="E3" t="n">
-        <v>70</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.74743269566762</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="C4" t="n">
-        <v>304.39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1900</v>
-      </c>
-      <c r="F4" t="n">
-        <v>900</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.6646580425818</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
